--- a/excel/2/1420 Terry - 4 - Appreciation.xlsx
+++ b/excel/2/1420 Terry - 4 - Appreciation.xlsx
@@ -3109,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3573,7 +3573,7 @@
         <v>-287109.19375971658</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" ref="L8:L34" si="10">L7*(1+B8)</f>
+        <f>L7*(1+B8)</f>
         <v>565470</v>
       </c>
       <c r="M8" s="5">
@@ -3617,7 +3617,7 @@
         <v>-586.67770000000007</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:G71" si="11">G8*(1+B9)</f>
+        <f t="shared" ref="G9:G71" si="10">G8*(1+B9)</f>
         <v>2227.89</v>
       </c>
       <c r="H9" s="5">
@@ -3636,7 +3636,7 @@
         <v>-279335.06801900273</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="L8:L34" si="11">L8*(1+B9)</f>
         <v>582434.1</v>
       </c>
       <c r="M9" s="5">
@@ -3680,7 +3680,7 @@
         <v>-604.27803100000006</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2294.7266999999997</v>
       </c>
       <c r="H10" s="5">
@@ -3699,7 +3699,7 @@
         <v>-271284.44031387288</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>599907.12300000002</v>
       </c>
       <c r="M10" s="5">
@@ -3743,7 +3743,7 @@
         <v>-622.40637193000009</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2363.5685009999997</v>
       </c>
       <c r="H11" s="5">
@@ -3762,7 +3762,7 @@
         <v>-262947.47631196911</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>617904.33669000003</v>
       </c>
       <c r="M11" s="5">
@@ -3806,7 +3806,7 @@
         <v>-641.07856308790008</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2434.47555603</v>
       </c>
       <c r="H12" s="5">
@@ -3825,7 +3825,7 @@
         <v>-254313.99190369746</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>636441.4667907001</v>
       </c>
       <c r="M12" s="5">
@@ -3869,7 +3869,7 @@
         <v>-660.31091998053705</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2507.5098227109002</v>
       </c>
       <c r="H13" s="5">
@@ -3888,7 +3888,7 @@
         <v>-245373.44076171692</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>655534.71079442115</v>
       </c>
       <c r="M13" s="5">
@@ -3932,7 +3932,7 @@
         <v>-680.12024757995323</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2582.735117392227</v>
       </c>
       <c r="H14" s="5">
@@ -3951,7 +3951,7 @@
         <v>-236114.90145795856</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>675200.75211825385</v>
       </c>
       <c r="M14" s="5">
@@ -3995,7 +3995,7 @@
         <v>-700.52385500735181</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2660.2171709139939</v>
       </c>
       <c r="H15" s="5">
@@ -4014,7 +4014,7 @@
         <v>-226527.06412243503</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>695456.77468180144</v>
       </c>
       <c r="M15" s="5">
@@ -4058,7 +4058,7 @@
         <v>-721.53957065757243</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2740.0236860414138</v>
       </c>
       <c r="H16" s="5">
@@ -4077,7 +4077,7 @@
         <v>-216598.21662754533</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>716320.47792225552</v>
       </c>
       <c r="M16" s="5">
@@ -4121,7 +4121,7 @@
         <v>-743.18575777729961</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2822.2243966226565</v>
       </c>
       <c r="H17" s="5">
@@ -4140,7 +4140,7 @@
         <v>-206316.23028099717</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>737810.09225992323</v>
       </c>
       <c r="M17" s="5">
@@ -4184,7 +4184,7 @@
         <v>-765.48133051061859</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2906.8911285213362</v>
       </c>
       <c r="H18" s="5">
@@ -4203,7 +4203,7 @@
         <v>-195668.54500987026</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>759944.39502772095</v>
       </c>
       <c r="M18" s="5">
@@ -4247,7 +4247,7 @@
         <v>-788.44577042593721</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2994.0978623769765</v>
       </c>
       <c r="H19" s="5">
@@ -4266,7 +4266,7 @@
         <v>-184642.15401772154</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>782742.72687855258</v>
       </c>
       <c r="M19" s="5">
@@ -4310,7 +4310,7 @@
         <v>-812.09914353871534</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3083.9207982482858</v>
       </c>
       <c r="H20" s="5">
@@ -4329,7 +4329,7 @@
         <v>-173223.58789599134</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>806225.0086849092</v>
       </c>
       <c r="M20" s="5">
@@ -4373,7 +4373,7 @@
         <v>-836.46211784487684</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3176.4384221957343</v>
       </c>
       <c r="H21" s="5">
@@ -4392,7 +4392,7 @@
         <v>-161398.89817029901</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>830411.75894545647</v>
       </c>
       <c r="M21" s="7">
@@ -4436,7 +4436,7 @@
         <v>-861.55598138022322</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3271.7315748616065</v>
       </c>
       <c r="H22" s="5">
@@ -4455,7 +4455,7 @@
         <v>-149153.64026153236</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>855324.11171382014</v>
       </c>
       <c r="M22" s="7">
@@ -4499,7 +4499,7 @@
         <v>-887.40266082162998</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3369.8835221074546</v>
       </c>
       <c r="H23" s="5">
@@ -4518,7 +4518,7 @@
         <v>-136472.85584091322</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>880983.8350652348</v>
       </c>
       <c r="M23" s="7">
@@ -4562,7 +4562,7 @@
         <v>-914.02474064627893</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3470.9800277706781</v>
       </c>
       <c r="H24" s="5">
@@ -4581,7 +4581,7 @@
         <v>-123341.05455748811</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>907413.35011719191</v>
       </c>
       <c r="M24" s="7">
@@ -4625,7 +4625,7 @@
         <v>-941.44548286566737</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3575.1094286037987</v>
       </c>
       <c r="H25" s="5">
@@ -4644,7 +4644,7 @@
         <v>-109742.19511571953</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>934635.75062070764</v>
       </c>
       <c r="M25" s="7">
@@ -4688,7 +4688,7 @@
         <v>-969.68884735163738</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3682.3627114619126</v>
       </c>
       <c r="H26" s="5">
@@ -4707,7 +4707,7 @@
         <v>-95659.66568006661</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>962674.82313932886</v>
       </c>
       <c r="M26" s="7">
@@ -4751,7 +4751,7 @@
         <v>-998.77951277218654</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3792.83359280577</v>
       </c>
       <c r="H27" s="5">
@@ -4770,7 +4770,7 @@
         <v>-81076.263582615604</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>991555.06783350871</v>
       </c>
       <c r="M27" s="7">
@@ -4814,7 +4814,7 @@
         <v>-1028.7428981553521</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3906.6186005899431</v>
       </c>
       <c r="H28" s="5">
@@ -4833,7 +4833,7 @@
         <v>-65974.174308972491</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1021301.719868514</v>
       </c>
       <c r="M28" s="7">
@@ -4877,7 +4877,7 @@
         <v>-1059.6051851000127</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4023.8171586076414</v>
       </c>
       <c r="H29" s="5">
@@ -4896,7 +4896,7 @@
         <v>-50334.94973674776</v>
       </c>
       <c r="L29" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1051940.7714645695</v>
       </c>
       <c r="M29" s="7">
@@ -4940,7 +4940,7 @@
         <v>-1091.3933406530132</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4144.531673365871</v>
       </c>
       <c r="H30" s="5">
@@ -4959,7 +4959,7 @@
         <v>-34139.485600051208</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1083498.9946085066</v>
       </c>
       <c r="M30" s="7">
@@ -5003,7 +5003,7 @@
         <v>-1124.1351408726036</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4268.8676235668472</v>
       </c>
       <c r="H31" s="5">
@@ -5022,7 +5022,7 @@
         <v>-17367.998152466684</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1116003.9644467619</v>
       </c>
       <c r="M31" s="7">
@@ -5066,7 +5066,7 @@
         <v>-1157.8591950987818</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4396.9336522738531</v>
       </c>
       <c r="H32" s="5">
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1149484.0833801648</v>
       </c>
       <c r="M32" s="7">
@@ -5128,17 +5128,17 @@
         <v>-1192.5949709517454</v>
       </c>
       <c r="G33" s="5">
+        <f t="shared" si="10"/>
+        <v>4528.8416618420688</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
         <f t="shared" si="11"/>
-        <v>4528.8416618420688</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7">
-        <f t="shared" si="10"/>
         <v>1183968.6058815697</v>
       </c>
       <c r="M33" s="7">
@@ -5181,17 +5181,17 @@
         <v>-1228.3728200802977</v>
       </c>
       <c r="G34" s="5">
+        <f t="shared" si="10"/>
+        <v>4664.7069116973307</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
         <f t="shared" si="11"/>
-        <v>4664.7069116973307</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="K34" s="7">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7">
-        <f t="shared" si="10"/>
         <v>1219487.6640580168</v>
       </c>
       <c r="M34" s="7">
@@ -5234,7 +5234,7 @@
         <v>-1265.2240046827067</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4804.6481190482509</v>
       </c>
       <c r="H35" s="5">
@@ -5287,7 +5287,7 @@
         <v>-1303.1807248231878</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4948.7875626196983</v>
       </c>
       <c r="H36" s="5">
@@ -5340,7 +5340,7 @@
         <v>-1342.2761465678834</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5097.251189498289</v>
       </c>
       <c r="H37" s="5">
@@ -5393,7 +5393,7 @@
         <v>-1382.5444309649199</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5250.1687251832382</v>
       </c>
       <c r="H38" s="5">
@@ -5446,7 +5446,7 @@
         <v>-1424.0207638938675</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5407.6737869387352</v>
       </c>
       <c r="H39" s="5">
@@ -5499,7 +5499,7 @@
         <v>-1466.7413868106835</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5569.9040005468978</v>
       </c>
       <c r="H40" s="5">
@@ -5552,7 +5552,7 @@
         <v>-1510.743628415004</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5737.0011205633045</v>
       </c>
       <c r="H41" s="5">
@@ -5605,7 +5605,7 @@
         <v>-1556.065937267454</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5909.1111541802038</v>
       </c>
       <c r="H42" s="5">
@@ -5658,7 +5658,7 @@
         <v>-1602.7479153854777</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6086.3844888056101</v>
       </c>
       <c r="H43" s="5">
@@ -5711,7 +5711,7 @@
         <v>-1650.8303528470419</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6268.9760234697787</v>
       </c>
       <c r="H44" s="5">
@@ -5764,7 +5764,7 @@
         <v>-1700.3552634324533</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6457.045304173872</v>
       </c>
       <c r="H45" s="5">
@@ -5817,7 +5817,7 @@
         <v>-1751.3659213354269</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6650.7566632990884</v>
       </c>
       <c r="H46" s="5">
@@ -5870,7 +5870,7 @@
         <v>-1803.9068989754899</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6850.2793631980612</v>
       </c>
       <c r="H47" s="5">
@@ -5923,7 +5923,7 @@
         <v>-1858.0241059447546</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7055.7877440940028</v>
       </c>
       <c r="H48" s="5">
@@ -5976,7 +5976,7 @@
         <v>-1913.7648291230973</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7267.4613764168234</v>
       </c>
       <c r="H49" s="5">
@@ -6029,7 +6029,7 @@
         <v>-1971.1777739967904</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7485.485217709328</v>
       </c>
       <c r="H50" s="5">
@@ -6082,7 +6082,7 @@
         <v>-2030.3131072166941</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7710.0497742406078</v>
       </c>
       <c r="H51" s="5">
@@ -6135,7 +6135,7 @@
         <v>-2091.2225004331949</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7941.3512674678259</v>
       </c>
       <c r="H52" s="5">
@@ -6188,7 +6188,7 @@
         <v>-2153.9591754461908</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8179.5918054918611</v>
       </c>
       <c r="H53" s="5">
@@ -6241,7 +6241,7 @@
         <v>-2218.5779507095767</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8424.9795596566164</v>
       </c>
       <c r="H54" s="5">
@@ -6294,7 +6294,7 @@
         <v>-2285.1352892308641</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8677.7289464463156</v>
       </c>
       <c r="H55" s="5">
@@ -6347,7 +6347,7 @@
         <v>-2353.6893479077903</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8938.0608148397059</v>
       </c>
       <c r="H56" s="5">
@@ -6400,7 +6400,7 @@
         <v>-2424.3000283450242</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>9206.2026392848966</v>
       </c>
       <c r="H57" s="5">
@@ -6453,7 +6453,7 @@
         <v>-2497.0290291953752</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>9482.3887184634441</v>
       </c>
       <c r="H58" s="5">
@@ -6506,7 +6506,7 @@
         <v>-2571.9399000712365</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>9766.8603800173478</v>
       </c>
       <c r="H59" s="5">
@@ -6559,7 +6559,7 @@
         <v>-2649.0980970733735</v>
       </c>
       <c r="G60" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>10059.866191417868</v>
       </c>
       <c r="H60" s="5">
@@ -6612,7 +6612,7 @@
         <v>-2728.5710399855748</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>10361.662177160404</v>
       </c>
       <c r="H61" s="5">
@@ -6665,7 +6665,7 @@
         <v>-2810.4281711851422</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>10672.512042475217</v>
       </c>
       <c r="H62" s="5">
@@ -6718,7 +6718,7 @@
         <v>-2894.7410163206964</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>10992.687403749473</v>
       </c>
       <c r="H63" s="5">
@@ -6771,7 +6771,7 @@
         <v>-2981.5832468103172</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11322.468025861957</v>
       </c>
       <c r="H64" s="5">
@@ -6824,7 +6824,7 @@
         <v>-3071.0307442146268</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11662.142066637816</v>
       </c>
       <c r="H65" s="5">
@@ -6877,7 +6877,7 @@
         <v>-3163.1616665410656</v>
       </c>
       <c r="G66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12012.006328636951</v>
       </c>
       <c r="H66" s="5">
@@ -6930,7 +6930,7 @@
         <v>-3258.0565165372977</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12372.366518496061</v>
       </c>
       <c r="H67" s="5">
@@ -6983,7 +6983,7 @@
         <v>-3355.7982120334168</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12743.537514050942</v>
       </c>
       <c r="H68" s="5">
@@ -7036,7 +7036,7 @@
         <v>-3456.4721583944192</v>
       </c>
       <c r="G69" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13125.84363947247</v>
       </c>
       <c r="H69" s="5">
@@ -7089,7 +7089,7 @@
         <v>-3560.1663231462521</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13519.618948656645</v>
       </c>
       <c r="H70" s="5">
@@ -7142,7 +7142,7 @@
         <v>-3666.9713128406397</v>
       </c>
       <c r="G71" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13925.207517116345</v>
       </c>
       <c r="H71" s="5">

--- a/excel/2/1420 Terry - 4 - Appreciation.xlsx
+++ b/excel/2/1420 Terry - 4 - Appreciation.xlsx
@@ -1338,7 +1338,7 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>-53626.34</c:v>
+                  <c:v>-68140.579999999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-26724.559999999998</c:v>
@@ -3109,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>-20137.46</v>
+        <v>-34651.699999999997</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:I32" si="0">0.035/12</f>
@@ -3230,7 +3230,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="8">
         <f>12*(C2+D2+E2+F2+G2)+H2</f>
-        <v>-53626.34</v>
+        <v>-68140.579999999987</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -3636,7 +3636,7 @@
         <v>-279335.06801900273</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" ref="L8:L34" si="11">L8*(1+B9)</f>
+        <f t="shared" ref="L9:L34" si="11">L8*(1+B9)</f>
         <v>582434.1</v>
       </c>
       <c r="M9" s="5">

--- a/excel/2/1420 Terry - 4 - Appreciation.xlsx
+++ b/excel/2/1420 Terry - 4 - Appreciation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>PMI Payment</t>
   </si>
   <si>
-    <t>Δ Equity</t>
-  </si>
-  <si>
     <t>Rent</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Escrow Payment</t>
+  </si>
+  <si>
+    <t>Δ Equity + Expenses</t>
   </si>
 </sst>
 </file>
@@ -145,7 +145,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -161,6 +161,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3110,7 +3111,7 @@
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3146,16 +3147,16 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -3172,14 +3173,14 @@
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
+      <c r="N1" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="14"/>
     </row>

--- a/excel/2/1420 Terry - 4 - Appreciation.xlsx
+++ b/excel/2/1420 Terry - 4 - Appreciation.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -72,6 +73,18 @@
   </si>
   <si>
     <t>Δ Equity + Expenses</t>
+  </si>
+  <si>
+    <t>Total Cash Flow</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Annual Return</t>
+  </si>
+  <si>
+    <t>2012 to 2017</t>
   </si>
 </sst>
 </file>
@@ -123,12 +136,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,7 +164,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -158,10 +177,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -736,19 +763,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="1">
-                  <c:v>-1.9899844894673613</c:v>
+                  <c:v>-0.54418331728998659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.83289464083204701</c:v>
+                  <c:v>-0.49463401065179591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8622513060573893</c:v>
+                  <c:v>3.2825826442680119</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.3191329411299762</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30040901290364064</c:v>
+                  <c:v>0.40710813836703047</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.4229839056250617E-2</c:v>
@@ -3110,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="D1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3173,7 +3200,7 @@
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -3182,352 +3209,352 @@
       <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="14"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="16">
         <v>2012</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18">
         <v>-1475</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="18">
         <v>-290.04000000000002</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="18">
         <f>-2046.7-C2</f>
         <v>-571.70000000000005</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="18">
         <v>-454</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
         <v>-34651.699999999997</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="19">
         <f t="shared" ref="I2:I32" si="0">0.035/12</f>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="16">
         <f t="shared" ref="J2:J32" si="1">(A2-2012)*12</f>
         <v>0</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="18">
         <f t="shared" ref="K2:K32" si="2">-328457*((1+I2)^360-(1+I2)^J2)/((1+I2)^360-1)</f>
         <v>-328457</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="18">
         <v>337500</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="18">
         <f t="shared" ref="M2:M65" si="3">K2+L2</f>
         <v>9043</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="8">
+      <c r="N2" s="18"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21">
         <f>12*(C2+D2+E2+F2+G2)+H2</f>
         <v>-68140.579999999987</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="16">
         <v>2013</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="17">
         <f>L3/L2-1</f>
         <v>4.5925925925925926E-2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="18">
         <v>-1475</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="18">
         <v>-290.04000000000002</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="18">
         <f>-2062.95-C3</f>
         <v>-587.94999999999982</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="18">
         <v>-454</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="18">
         <f>(6149.9+1998)/12</f>
         <v>678.99166666666667</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="18">
         <v>-1188.58</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="19">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="18">
         <f t="shared" si="2"/>
         <v>-322153.48973825335</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="18">
         <v>353000</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="18">
         <f t="shared" si="3"/>
         <v>30846.510261746647</v>
       </c>
-      <c r="N3" s="8">
-        <f>M3-M2+12*(C3+D3+E3+F3+G3+H3)</f>
-        <v>-17995.429738253348</v>
-      </c>
-      <c r="O3" s="13">
+      <c r="N3" s="21">
+        <f>M3-M2+12*(C3+D3+E3+F3+G3)+H3</f>
+        <v>-4921.0497382533486</v>
+      </c>
+      <c r="O3" s="22">
         <f>N3/M2</f>
-        <v>-1.9899844894673613</v>
-      </c>
-      <c r="P3" s="8">
+        <v>-0.54418331728998659</v>
+      </c>
+      <c r="P3" s="21">
         <f>12*(C3+D3+E3+F3+G3)+H3</f>
         <v>-26724.559999999998</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="16">
         <v>2014</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="17">
         <f>L4/L3-1</f>
         <v>-3.1161473087818692E-2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="18">
         <v>-1475</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="18">
         <v>-290.04000000000002</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="18">
         <f>-2073.7-C4</f>
         <v>-598.69999999999982</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="18">
         <v>-454</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="18">
         <v>1998</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="18">
         <f>-913.59-34.97</f>
         <v>-948.56000000000006</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="19">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="16">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="18">
         <f t="shared" si="2"/>
         <v>-315625.78282363288</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="18">
         <v>342000</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="18">
         <f t="shared" si="3"/>
         <v>26374.217176367121</v>
       </c>
-      <c r="N4" s="8">
-        <f t="shared" ref="N4:N67" si="4">M4-M3+12*(C4+D4+E4+F4+G4+H4)</f>
-        <v>-25691.893085379525</v>
-      </c>
-      <c r="O4" s="13">
+      <c r="N4" s="21">
+        <f t="shared" ref="N4:N67" si="4">M4-M3+12*(C4+D4+E4+F4+G4)+H4</f>
+        <v>-15257.733085379523</v>
+      </c>
+      <c r="O4" s="22">
         <f>N4/M3</f>
-        <v>-0.83289464083204701</v>
-      </c>
-      <c r="P4" s="8">
+        <v>-0.49463401065179591</v>
+      </c>
+      <c r="P4" s="21">
         <f t="shared" ref="P4:P66" si="5">12*(C4+D4+E4+F4+G4)+H4</f>
         <v>-10785.439999999997</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="16">
         <v>2015</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="17">
         <f>L5/L4-1</f>
         <v>0.26315789473684204</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="18">
         <v>-1475</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="18">
         <v>-290.04000000000002</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="18">
         <f>-2048.67-C5</f>
         <v>-573.67000000000007</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="18">
         <v>-475</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="18">
         <f>(1998+22590)/12</f>
         <v>2049</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="18">
         <v>-1007.81</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="19">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="16">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="18">
         <f t="shared" si="2"/>
         <v>-308865.90526433487</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="18">
         <v>432000</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="18">
         <f t="shared" si="3"/>
         <v>123134.09473566513</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="21">
         <f t="shared" si="4"/>
-        <v>75489.637559298018</v>
-      </c>
-      <c r="O5" s="13">
+        <v>86575.547559298007</v>
+      </c>
+      <c r="O5" s="22">
         <f t="shared" ref="O5:O67" si="6">N5/M4</f>
-        <v>2.8622513060573893</v>
-      </c>
-      <c r="P5" s="8">
+        <v>3.2825826442680119</v>
+      </c>
+      <c r="P5" s="21">
         <f t="shared" si="5"/>
         <v>-10184.33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="16">
         <v>2016</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="17">
         <f>L6/L5-1</f>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="18">
         <v>-1475</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="18">
         <v>-290.04000000000002</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="18">
         <f>-2078.64-C6</f>
         <v>-603.63999999999987</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="18">
         <v>-540</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="18">
         <v>2100</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="16">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="18">
         <f t="shared" si="2"/>
         <v>-301865.59945796494</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="18">
         <v>474000</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="18">
         <f>K6+L6</f>
         <v>172134.40054203506</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="21">
         <f t="shared" si="4"/>
         <v>39296.145806369932</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="22">
         <f t="shared" si="6"/>
         <v>0.3191329411299762</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="21">
         <f t="shared" si="5"/>
         <v>-9704.159999999998</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="16">
         <v>2017</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="17">
         <f>L7/L6-1</f>
         <v>0.15822784810126578</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="18">
         <v>-1475</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="18">
         <v>-290.04000000000002</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="18">
         <f>-2132.15-C7</f>
         <v>-657.15000000000009</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="23">
         <v>-553</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="18">
         <v>2100</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="18">
         <v>-1669.69</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="19">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="16">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="18">
         <f t="shared" si="2"/>
         <v>-294616.31410437229</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="18">
         <v>549000</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="18">
         <f t="shared" si="3"/>
         <v>254383.68589562771</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="21">
         <f t="shared" si="4"/>
-        <v>51710.725353592657</v>
-      </c>
-      <c r="O7" s="13">
+        <v>70077.315353592654</v>
+      </c>
+      <c r="O7" s="22">
         <f t="shared" si="6"/>
-        <v>0.30040901290364064</v>
-      </c>
-      <c r="P7" s="8">
+        <v>0.40710813836703047</v>
+      </c>
+      <c r="P7" s="21">
         <f t="shared" si="5"/>
         <v>-12171.970000000001</v>
       </c>
@@ -3585,7 +3612,7 @@
         <f t="shared" si="4"/>
         <v>13795.186344655702</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="12">
         <f t="shared" si="6"/>
         <v>5.4229839056250617E-2</v>
       </c>
@@ -3648,7 +3675,7 @@
         <f t="shared" si="4"/>
         <v>14886.248120713821</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="12">
         <f t="shared" si="6"/>
         <v>5.3478247608838597E-2</v>
       </c>
@@ -3711,7 +3738,7 @@
         <f t="shared" si="4"/>
         <v>16011.528156529892</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="12">
         <f t="shared" si="6"/>
         <v>5.2826061673247882E-2</v>
       </c>
@@ -3774,7 +3801,7 @@
         <f t="shared" si="4"/>
         <v>17172.105866845774</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="12">
         <f t="shared" si="6"/>
         <v>5.2254779635059853E-2</v>
       </c>
@@ -3837,7 +3864,7 @@
         <f t="shared" si="4"/>
         <v>18369.094929161947</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="12">
         <f t="shared" si="6"/>
         <v>5.1750218067623102E-2</v>
       </c>
@@ -3900,7 +3927,7 @@
         <f t="shared" si="4"/>
         <v>23084.124378497581</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="12">
         <f t="shared" si="6"/>
         <v>6.0409486089226368E-2</v>
       </c>
@@ -3963,7 +3990,7 @@
         <f t="shared" si="4"/>
         <v>24357.419737370899</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="12">
         <f t="shared" si="6"/>
         <v>5.9384982242298885E-2</v>
       </c>
@@ -4026,7 +4053,7 @@
         <f t="shared" si="4"/>
         <v>25670.684182144341</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <f t="shared" si="6"/>
         <v>5.8463929419590464E-2</v>
       </c>
@@ -4089,7 +4116,7 @@
         <f t="shared" si="4"/>
         <v>27025.179746909263</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="12">
         <f t="shared" si="6"/>
         <v>5.7631621836611871E-2</v>
       </c>
@@ -4152,7 +4179,7 @@
         <f t="shared" si="4"/>
         <v>28422.208566128182</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="12">
         <f t="shared" si="6"/>
         <v>5.6876010471277043E-2</v>
       </c>
@@ -4215,7 +4242,7 @@
         <f t="shared" si="4"/>
         <v>29863.114157294527</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="12">
         <f t="shared" si="6"/>
         <v>5.6187128946521336E-2</v>
       </c>
@@ -4278,7 +4305,7 @@
         <f t="shared" si="4"/>
         <v>31349.282744901164</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="12">
         <f t="shared" si="6"/>
         <v>5.5556662125287544E-2</v>
       </c>
@@ -4341,7 +4368,7 @@
         <f t="shared" si="4"/>
         <v>32882.144627065369</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="12">
         <f t="shared" si="6"/>
         <v>5.4977617676879482E-2</v>
       </c>
@@ -4404,7 +4431,7 @@
         <f t="shared" si="4"/>
         <v>34463.175586187383</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="12">
         <f t="shared" si="6"/>
         <v>5.4444073037364558E-2</v>
       </c>
@@ -4467,7 +4494,7 @@
         <f t="shared" si="4"/>
         <v>36093.898345076566</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="12">
         <f t="shared" si="6"/>
         <v>5.3950978316404954E-2</v>
       </c>
@@ -4530,7 +4557,7 @@
         <f t="shared" si="4"/>
         <v>37775.884070018466</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="12">
         <f t="shared" si="6"/>
         <v>5.3494001232209251E-2</v>
       </c>
@@ -4593,7 +4620,7 @@
         <f t="shared" si="4"/>
         <v>39510.753922306489</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="12">
         <f t="shared" si="6"/>
         <v>5.3069403977724118E-2</v>
       </c>
@@ -4656,7 +4683,7 @@
         <f t="shared" si="4"/>
         <v>41300.180659816164</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="12">
         <f t="shared" si="6"/>
         <v>5.2673944601415043E-2</v>
       </c>
@@ -4719,7 +4746,7 @@
         <f t="shared" si="4"/>
         <v>43145.890290242118</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="12">
         <f t="shared" si="6"/>
         <v>5.2304797391499583E-2</v>
       </c>
@@ -4782,7 +4809,7 @@
         <f t="shared" si="4"/>
         <v>45049.663777677699</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="12">
         <f t="shared" si="6"/>
         <v>5.1959488124398115E-2</v>
       </c>
@@ -4845,7 +4872,7 @@
         <f t="shared" si="4"/>
         <v>47013.33880427682</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="12">
         <f t="shared" si="6"/>
         <v>5.1635841037461147E-2</v>
       </c>
@@ -4908,7 +4935,7 @@
         <f t="shared" si="4"/>
         <v>49038.811588777346</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="12">
         <f t="shared" si="6"/>
         <v>5.13319351218487E-2</v>
       </c>
@@ -4971,7 +4998,7 @@
         <f t="shared" si="4"/>
         <v>51128.03876374571</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="12">
         <f t="shared" si="6"/>
         <v>5.1046067878826026E-2</v>
       </c>
@@ -5034,7 +5061,7 @@
         <f t="shared" si="4"/>
         <v>53283.039313445297</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="12">
         <f t="shared" si="6"/>
         <v>5.0776725093759995E-2</v>
       </c>
@@ -5097,7 +5124,7 @@
         <f t="shared" si="4"/>
         <v>55505.89657430329</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="12">
         <f t="shared" si="6"/>
         <v>5.0522555493540747E-2</v>
       </c>
@@ -5150,7 +5177,7 @@
         <f t="shared" si="4"/>
         <v>57513.035374491505</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420764936E-2</v>
       </c>
@@ -5203,7 +5230,7 @@
         <f t="shared" si="4"/>
         <v>59238.426435726411</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765075E-2</v>
       </c>
@@ -5256,7 +5283,7 @@
         <f t="shared" si="4"/>
         <v>61015.57922879824</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765103E-2</v>
       </c>
@@ -5309,7 +5336,7 @@
         <f t="shared" si="4"/>
         <v>62846.046605662144</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765068E-2</v>
       </c>
@@ -5362,7 +5389,7 @@
         <f t="shared" si="4"/>
         <v>64731.428003831941</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765013E-2</v>
       </c>
@@ -5415,7 +5442,7 @@
         <f t="shared" si="4"/>
         <v>66673.370843946963</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765061E-2</v>
       </c>
@@ -5468,7 +5495,7 @@
         <f t="shared" si="4"/>
         <v>68673.571969265424</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765096E-2</v>
       </c>
@@ -5521,7 +5548,7 @@
         <f t="shared" si="4"/>
         <v>70733.779128343362</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765068E-2</v>
       </c>
@@ -5574,7 +5601,7 @@
         <f t="shared" si="4"/>
         <v>72855.792502193508</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420764964E-2</v>
       </c>
@@ -5627,7 +5654,7 @@
         <f t="shared" si="4"/>
         <v>75041.4662772593</v>
       </c>
-      <c r="O42" s="13">
+      <c r="O42" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420764957E-2</v>
       </c>
@@ -5680,7 +5707,7 @@
         <f t="shared" si="4"/>
         <v>77292.71026557716</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O43" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765013E-2</v>
       </c>
@@ -5733,7 +5760,7 @@
         <f t="shared" si="4"/>
         <v>79611.49157354451</v>
       </c>
-      <c r="O44" s="13">
+      <c r="O44" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765033E-2</v>
       </c>
@@ -5786,7 +5813,7 @@
         <f t="shared" si="4"/>
         <v>81999.836320750837</v>
       </c>
-      <c r="O45" s="13">
+      <c r="O45" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765026E-2</v>
       </c>
@@ -5839,7 +5866,7 @@
         <f t="shared" si="4"/>
         <v>84459.831410373357</v>
       </c>
-      <c r="O46" s="13">
+      <c r="O46" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765019E-2</v>
       </c>
@@ -5892,7 +5919,7 @@
         <f t="shared" si="4"/>
         <v>86993.626352684631</v>
       </c>
-      <c r="O47" s="13">
+      <c r="O47" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765061E-2</v>
       </c>
@@ -5945,7 +5972,7 @@
         <f t="shared" si="4"/>
         <v>89603.435143265073</v>
       </c>
-      <c r="O48" s="13">
+      <c r="O48" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765006E-2</v>
       </c>
@@ -5998,7 +6025,7 @@
         <f t="shared" si="4"/>
         <v>92291.538197563073</v>
       </c>
-      <c r="O49" s="13">
+      <c r="O49" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765033E-2</v>
       </c>
@@ -6051,7 +6078,7 @@
         <f t="shared" si="4"/>
         <v>95060.284343490028</v>
       </c>
-      <c r="O50" s="13">
+      <c r="O50" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765061E-2</v>
       </c>
@@ -6104,7 +6131,7 @@
         <f t="shared" si="4"/>
         <v>97912.092873794725</v>
       </c>
-      <c r="O51" s="13">
+      <c r="O51" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765061E-2</v>
       </c>
@@ -6157,7 +6184,7 @@
         <f t="shared" si="4"/>
         <v>100849.45566000861</v>
       </c>
-      <c r="O52" s="13">
+      <c r="O52" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765075E-2</v>
       </c>
@@ -6210,7 +6237,7 @@
         <f t="shared" si="4"/>
         <v>103874.93932980877</v>
       </c>
-      <c r="O53" s="13">
+      <c r="O53" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765026E-2</v>
       </c>
@@ -6263,7 +6290,7 @@
         <f t="shared" si="4"/>
         <v>106991.18750970296</v>
       </c>
-      <c r="O54" s="13">
+      <c r="O54" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420764992E-2</v>
       </c>
@@ -6316,7 +6343,7 @@
         <f t="shared" si="4"/>
         <v>110200.92313499397</v>
       </c>
-      <c r="O55" s="13">
+      <c r="O55" s="12">
         <f t="shared" si="6"/>
         <v>5.003378142076495E-2</v>
       </c>
@@ -6369,7 +6396,7 @@
         <f t="shared" si="4"/>
         <v>113506.9508290441</v>
       </c>
-      <c r="O56" s="13">
+      <c r="O56" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765096E-2</v>
       </c>
@@ -6422,7 +6449,7 @@
         <f t="shared" si="4"/>
         <v>116912.15935391519</v>
       </c>
-      <c r="O57" s="13">
+      <c r="O57" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420764992E-2</v>
       </c>
@@ -6475,7 +6502,7 @@
         <f t="shared" si="4"/>
         <v>120419.52413453256</v>
       </c>
-      <c r="O58" s="13">
+      <c r="O58" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420764957E-2</v>
       </c>
@@ -6528,7 +6555,7 @@
         <f t="shared" si="4"/>
         <v>124032.10985856861</v>
       </c>
-      <c r="O59" s="13">
+      <c r="O59" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420764985E-2</v>
       </c>
@@ -6581,7 +6608,7 @@
         <f t="shared" si="4"/>
         <v>127753.07315432599</v>
       </c>
-      <c r="O60" s="13">
+      <c r="O60" s="12">
         <f t="shared" si="6"/>
         <v>5.003378142076511E-2</v>
       </c>
@@ -6634,7 +6661,7 @@
         <f t="shared" si="4"/>
         <v>131585.66534895572</v>
       </c>
-      <c r="O61" s="13">
+      <c r="O61" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765089E-2</v>
       </c>
@@ -6687,7 +6714,7 @@
         <f t="shared" si="4"/>
         <v>135533.2353094244</v>
       </c>
-      <c r="O62" s="13">
+      <c r="O62" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765089E-2</v>
       </c>
@@ -6740,7 +6767,7 @@
         <f t="shared" si="4"/>
         <v>139599.2323687069</v>
       </c>
-      <c r="O63" s="13">
+      <c r="O63" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420764999E-2</v>
       </c>
@@ -6793,7 +6820,7 @@
         <f t="shared" si="4"/>
         <v>143787.20933976833</v>
       </c>
-      <c r="O64" s="13">
+      <c r="O64" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765075E-2</v>
       </c>
@@ -6846,7 +6873,7 @@
         <f t="shared" si="4"/>
         <v>148100.82561996122</v>
       </c>
-      <c r="O65" s="13">
+      <c r="O65" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765019E-2</v>
       </c>
@@ -6899,7 +6926,7 @@
         <f t="shared" si="4"/>
         <v>152543.85038855995</v>
       </c>
-      <c r="O66" s="13">
+      <c r="O66" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420764978E-2</v>
       </c>
@@ -6952,7 +6979,7 @@
         <f t="shared" si="4"/>
         <v>157120.16590021696</v>
       </c>
-      <c r="O67" s="13">
+      <c r="O67" s="12">
         <f t="shared" si="6"/>
         <v>5.0033781420765047E-2</v>
       </c>
@@ -7002,10 +7029,10 @@
         <v>3331524.8072447493</v>
       </c>
       <c r="N68" s="8">
-        <f t="shared" ref="N68:N71" si="17">M68-M67+12*(C68+D68+E68+F68+G68+H68)</f>
+        <f t="shared" ref="N68:N71" si="17">M68-M67+12*(C68+D68+E68+F68+G68)+H68</f>
         <v>161833.77087722358</v>
       </c>
-      <c r="O68" s="13">
+      <c r="O68" s="12">
         <f t="shared" ref="O68:O71" si="18">N68/M67</f>
         <v>5.0033781420765082E-2</v>
       </c>
@@ -7058,7 +7085,7 @@
         <f t="shared" si="17"/>
         <v>166688.7840035402</v>
       </c>
-      <c r="O69" s="13">
+      <c r="O69" s="12">
         <f t="shared" si="18"/>
         <v>5.0033781420765054E-2</v>
       </c>
@@ -7111,7 +7138,7 @@
         <f t="shared" si="17"/>
         <v>171689.44752364641</v>
       </c>
-      <c r="O70" s="13">
+      <c r="O70" s="12">
         <f t="shared" si="18"/>
         <v>5.0033781420765047E-2</v>
       </c>
@@ -7164,7 +7191,7 @@
         <f t="shared" si="17"/>
         <v>176840.13094935555</v>
       </c>
-      <c r="O71" s="13">
+      <c r="O71" s="12">
         <f t="shared" si="18"/>
         <v>5.0033781420764971E-2</v>
       </c>
@@ -7178,4 +7205,60 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061DCE9F-7618-B34C-987A-574E9FCD17E1}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <f>SUM(Sheet1!P2:P7)</f>
+        <v>-137711.03999999998</v>
+      </c>
+      <c r="B4" s="8">
+        <f>Sheet1!M7</f>
+        <v>254383.68589562771</v>
+      </c>
+      <c r="C4" s="11">
+        <f>-1*B4/A4</f>
+        <v>1.8472279774782598</v>
+      </c>
+      <c r="D4" s="15">
+        <f>C4^(1/6)-1</f>
+        <v>0.10769471325288849</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/2/1420 Terry - 4 - Appreciation.xlsx
+++ b/excel/2/1420 Terry - 4 - Appreciation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3137,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7211,7 +7211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061DCE9F-7618-B34C-987A-574E9FCD17E1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/excel/2/1420 Terry - 4 - Appreciation.xlsx
+++ b/excel/2/1420 Terry - 4 - Appreciation.xlsx
@@ -3137,9 +3137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/excel/2/1420 Terry - 4 - Appreciation.xlsx
+++ b/excel/2/1420 Terry - 4 - Appreciation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -787,10 +787,10 @@
                   <c:v>5.2826061673247882E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2254779635059853E-2</c:v>
+                  <c:v>6.284589273641647E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1750218067623102E-2</c:v>
+                  <c:v>6.1555578629729907E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6.0409486089226368E-2</c:v>
@@ -1393,10 +1393,10 @@
                   <c:v>-9512.1225486000058</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9162.0718250580067</c:v>
+                  <c:v>-5681.5918250580071</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8801.5195798097429</c:v>
+                  <c:v>-5321.0395798097434</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-4949.6707672040375</c:v>
@@ -3137,7 +3137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3758,7 +3760,7 @@
         <v>-1475</v>
       </c>
       <c r="D11" s="5">
-        <v>-290.04000000000002</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="8"/>
@@ -3797,15 +3799,15 @@
       </c>
       <c r="N11" s="8">
         <f t="shared" si="4"/>
-        <v>17172.105866845774</v>
+        <v>20652.585866845773</v>
       </c>
       <c r="O11" s="12">
         <f t="shared" si="6"/>
-        <v>5.2254779635059853E-2</v>
+        <v>6.284589273641647E-2</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="5"/>
-        <v>-9162.0718250580067</v>
+        <v>-5681.5918250580071</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3821,7 +3823,7 @@
         <v>-1475</v>
       </c>
       <c r="D12" s="5">
-        <v>-290.04000000000002</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="8"/>
@@ -3860,15 +3862,15 @@
       </c>
       <c r="N12" s="8">
         <f t="shared" si="4"/>
-        <v>18369.094929161947</v>
+        <v>21849.574929161943</v>
       </c>
       <c r="O12" s="12">
         <f t="shared" si="6"/>
-        <v>5.1750218067623102E-2</v>
+        <v>6.1555578629729907E-2</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="5"/>
-        <v>-8801.5195798097429</v>
+        <v>-5321.0395798097434</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">

--- a/excel/2/1420 Terry - 4 - Appreciation.xlsx
+++ b/excel/2/1420 Terry - 4 - Appreciation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3137,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="D1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3609,7 +3609,7 @@
         <v>278360.80624028342</v>
       </c>
       <c r="N8" s="8">
-        <f t="shared" si="4"/>
+        <f>M8-M7+12*(C8+D8+E8+F8+G8)+H8</f>
         <v>13795.186344655702</v>
       </c>
       <c r="O8" s="12">
@@ -7211,8 +7211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061DCE9F-7618-B34C-987A-574E9FCD17E1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/excel/2/1420 Terry - 4 - Appreciation.xlsx
+++ b/excel/2/1420 Terry - 4 - Appreciation.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -763,124 +763,124 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="1">
-                  <c:v>-0.54418331728998659</c:v>
+                  <c:v>-0.15930219376903118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.49463401065179591</c:v>
+                  <c:v>-0.38180179817568283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2825826442680119</c:v>
+                  <c:v>3.4145478880788773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3191329411299762</c:v>
+                  <c:v>0.34739871112220805</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40710813836703047</c:v>
+                  <c:v>0.4273276876787328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4229839056250617E-2</c:v>
+                  <c:v>6.8322308812628241E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3478247608838597E-2</c:v>
+                  <c:v>6.6743194214908735E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2826061673247882E-2</c:v>
+                  <c:v>6.5373823518948659E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.284589273641647E-2</c:v>
+                  <c:v>7.4766283839699785E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1555578629729907E-2</c:v>
+                  <c:v>7.2922678918544023E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0409486089226368E-2</c:v>
+                  <c:v>7.128511113621408E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.9384982242298885E-2</c:v>
+                  <c:v>6.9821246472689641E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8463929419590464E-2</c:v>
+                  <c:v>6.8505172894500407E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.7631621836611871E-2</c:v>
+                  <c:v>6.7315881265251967E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6876010471277043E-2</c:v>
+                  <c:v>6.6236157981738056E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.6187128946521336E-2</c:v>
+                  <c:v>6.525176477211822E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5556662125287544E-2</c:v>
+                  <c:v>6.4350822377393688E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4977617676879482E-2</c:v>
+                  <c:v>6.3523341340954956E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.4444073037364558E-2</c:v>
+                  <c:v>6.2760860508398131E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.3950978316404954E-2</c:v>
+                  <c:v>6.2056165454134775E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.3494001232209251E-2</c:v>
+                  <c:v>6.1403066950672824E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3069403977724118E-2</c:v>
+                  <c:v>6.0796225055853442E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.2673944601415043E-2</c:v>
+                  <c:v>6.0231008222384523E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.2304797391499583E-2</c:v>
+                  <c:v>5.9703379556294893E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.1959488124398115E-2</c:v>
+                  <c:v>5.9209804310868669E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.1635841037461147E-2</c:v>
+                  <c:v>5.8747174130240415E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.13319351218487E-2</c:v>
+                  <c:v>5.8312744608050332E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.1046067878826026E-2</c:v>
+                  <c:v>5.7904083508563978E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.0776725093759995E-2</c:v>
+                  <c:v>5.751902758486583E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.0522555493540747E-2</c:v>
+                  <c:v>5.7155646373664749E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.0033781420764936E-2</c:v>
+                  <c:v>5.6563643715846906E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.0033781420765075E-2</c:v>
+                  <c:v>5.6563643715847052E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.0033781420765103E-2</c:v>
+                  <c:v>5.6563643715847066E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0033781420765068E-2</c:v>
+                  <c:v>5.6563643715847038E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.0033781420765013E-2</c:v>
+                  <c:v>5.6563643715846976E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.0033781420765061E-2</c:v>
+                  <c:v>5.6563643715847024E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.0033781420765096E-2</c:v>
+                  <c:v>5.6563643715847073E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.0033781420765068E-2</c:v>
+                  <c:v>5.6563643715847038E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.0033781420764964E-2</c:v>
+                  <c:v>5.6563643715846927E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.0033781420764957E-2</c:v>
+                  <c:v>5.6563643715846927E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,127 +1366,127 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>-68140.579999999987</c:v>
+                  <c:v>-64660.099999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-26724.559999999998</c:v>
+                  <c:v>-23244.079999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10785.439999999997</c:v>
+                  <c:v>-7304.9599999999982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-10184.33</c:v>
+                  <c:v>-6703.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9704.159999999998</c:v>
+                  <c:v>-6223.6799999999985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-12171.970000000001</c:v>
+                  <c:v>-8691.4900000000016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10181.934000000003</c:v>
+                  <c:v>-6597.0396000000037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9851.9776200000033</c:v>
+                  <c:v>-6159.5363880000059</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9512.1225486000058</c:v>
+                  <c:v>-5708.9080796400067</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5681.5918250580071</c:v>
+                  <c:v>-1764.2809220292038</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5321.0395798097434</c:v>
+                  <c:v>-1286.2093496900779</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4949.6707672040375</c:v>
+                  <c:v>-793.79563018077897</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4567.1608902201588</c:v>
+                  <c:v>-286.60949908620387</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4173.1757169267621</c:v>
+                  <c:v>235.79221594120827</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3767.3709884345644</c:v>
+                  <c:v>773.86598241944921</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3349.3921180875968</c:v>
+                  <c:v>1328.0819618920304</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2918.8738816302302</c:v>
+                  <c:v>1898.9244207487955</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2475.4400980791288</c:v>
+                  <c:v>2486.8921533712619</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2018.7033010215091</c:v>
+                  <c:v>3092.4989179723943</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1548.2644000521559</c:v>
+                  <c:v>3716.2738855115676</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1063.7123320537212</c:v>
+                  <c:v>4358.7621020769129</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-564.62370201533304</c:v>
+                  <c:v>5020.5249651392169</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-50.562413075798759</c:v>
+                  <c:v>5702.1407140933916</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>478.92071453193421</c:v>
+                  <c:v>6404.204935516198</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1024.2883359678908</c:v>
+                  <c:v>7127.331083581681</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1586.0169860469268</c:v>
+                  <c:v>7872.1510160891321</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2164.5974956283335</c:v>
+                  <c:v>8639.3155465718046</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2760.5354204971845</c:v>
+                  <c:v>9429.4950129689569</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3374.3514831121065</c:v>
+                  <c:v>10243.379863358032</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4006.5820276054656</c:v>
+                  <c:v>11081.681259258776</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4657.7794884336363</c:v>
+                  <c:v>11945.131697036544</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23028.512873086642</c:v>
+                  <c:v>30534.485647947637</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>23719.368259279239</c:v>
+                  <c:v>31450.520217386067</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>24430.949307057621</c:v>
+                  <c:v>32394.035823907649</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>25163.877786269346</c:v>
+                  <c:v>33365.856898624879</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25918.794119857423</c:v>
+                  <c:v>34366.832605583622</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26696.357943453149</c:v>
+                  <c:v>35397.837583751141</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27497.248681756741</c:v>
+                  <c:v>36459.772711263671</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>28322.166142209455</c:v>
+                  <c:v>37553.565892601582</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>29171.831126475736</c:v>
+                  <c:v>38680.172869379632</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30046.98606027001</c:v>
+                  <c:v>39840.578055461025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3137,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3223,8 +3223,8 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E2" s="18">
-        <f>-2046.7-C2</f>
-        <v>-571.70000000000005</v>
+        <f>-2046.7-C2-D2</f>
+        <v>-281.66000000000003</v>
       </c>
       <c r="F2" s="18">
         <v>-454</v>
@@ -3258,7 +3258,7 @@
       <c r="O2" s="20"/>
       <c r="P2" s="21">
         <f>12*(C2+D2+E2+F2+G2)+H2</f>
-        <v>-68140.579999999987</v>
+        <v>-64660.099999999991</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -3276,8 +3276,8 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E3" s="18">
-        <f>-2062.95-C3</f>
-        <v>-587.94999999999982</v>
+        <f>-2062.95-C3-D3</f>
+        <v>-297.9099999999998</v>
       </c>
       <c r="F3" s="18">
         <v>-454</v>
@@ -3310,15 +3310,15 @@
       </c>
       <c r="N3" s="21">
         <f>M3-M2+12*(C3+D3+E3+F3+G3)+H3</f>
-        <v>-4921.0497382533486</v>
+        <v>-1440.569738253349</v>
       </c>
       <c r="O3" s="22">
         <f>N3/M2</f>
-        <v>-0.54418331728998659</v>
+        <v>-0.15930219376903118</v>
       </c>
       <c r="P3" s="21">
         <f>12*(C3+D3+E3+F3+G3)+H3</f>
-        <v>-26724.559999999998</v>
+        <v>-23244.079999999994</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3336,8 +3336,8 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E4" s="18">
-        <f>-2073.7-C4</f>
-        <v>-598.69999999999982</v>
+        <f>-2073.7-C4-D4</f>
+        <v>-308.6599999999998</v>
       </c>
       <c r="F4" s="18">
         <v>-454</v>
@@ -3370,15 +3370,15 @@
       </c>
       <c r="N4" s="21">
         <f t="shared" ref="N4:N67" si="4">M4-M3+12*(C4+D4+E4+F4+G4)+H4</f>
-        <v>-15257.733085379523</v>
+        <v>-11777.253085379523</v>
       </c>
       <c r="O4" s="22">
         <f>N4/M3</f>
-        <v>-0.49463401065179591</v>
+        <v>-0.38180179817568283</v>
       </c>
       <c r="P4" s="21">
         <f t="shared" ref="P4:P66" si="5">12*(C4+D4+E4+F4+G4)+H4</f>
-        <v>-10785.439999999997</v>
+        <v>-7304.9599999999982</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -3396,8 +3396,8 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E5" s="18">
-        <f>-2048.67-C5</f>
-        <v>-573.67000000000007</v>
+        <f>-2048.67-C5-D5</f>
+        <v>-283.63000000000005</v>
       </c>
       <c r="F5" s="18">
         <v>-475</v>
@@ -3430,15 +3430,15 @@
       </c>
       <c r="N5" s="21">
         <f t="shared" si="4"/>
-        <v>86575.547559298007</v>
+        <v>90056.027559298003</v>
       </c>
       <c r="O5" s="22">
         <f t="shared" ref="O5:O67" si="6">N5/M4</f>
-        <v>3.2825826442680119</v>
+        <v>3.4145478880788773</v>
       </c>
       <c r="P5" s="21">
         <f t="shared" si="5"/>
-        <v>-10184.33</v>
+        <v>-6703.85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -3456,8 +3456,8 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E6" s="18">
-        <f>-2078.64-C6</f>
-        <v>-603.63999999999987</v>
+        <f>-2078.64-C6-D6</f>
+        <v>-313.59999999999985</v>
       </c>
       <c r="F6" s="18">
         <v>-540</v>
@@ -3489,15 +3489,15 @@
       </c>
       <c r="N6" s="21">
         <f t="shared" si="4"/>
-        <v>39296.145806369932</v>
+        <v>42776.625806369928</v>
       </c>
       <c r="O6" s="22">
         <f t="shared" si="6"/>
-        <v>0.3191329411299762</v>
+        <v>0.34739871112220805</v>
       </c>
       <c r="P6" s="21">
         <f t="shared" si="5"/>
-        <v>-9704.159999999998</v>
+        <v>-6223.6799999999985</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -3515,8 +3515,8 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E7" s="18">
-        <f>-2132.15-C7</f>
-        <v>-657.15000000000009</v>
+        <f>-2132.15-C7-D7</f>
+        <v>-367.11000000000007</v>
       </c>
       <c r="F7" s="23">
         <v>-553</v>
@@ -3548,15 +3548,15 @@
       </c>
       <c r="N7" s="21">
         <f t="shared" si="4"/>
-        <v>70077.315353592654</v>
+        <v>73557.79535359265</v>
       </c>
       <c r="O7" s="22">
         <f t="shared" si="6"/>
-        <v>0.40710813836703047</v>
+        <v>0.4273276876787328</v>
       </c>
       <c r="P7" s="21">
         <f t="shared" si="5"/>
-        <v>-12171.970000000001</v>
+        <v>-8691.4900000000016</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" ref="E8:E67" si="8">E7*(1+B8)</f>
-        <v>-676.86450000000013</v>
+        <v>-378.12330000000009</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F34" si="9">F7*(1+B8)</f>
@@ -3610,15 +3610,15 @@
       </c>
       <c r="N8" s="8">
         <f>M8-M7+12*(C8+D8+E8+F8+G8)+H8</f>
-        <v>13795.186344655702</v>
+        <v>17380.080744655701</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="6"/>
-        <v>5.4229839056250617E-2</v>
+        <v>6.8322308812628241E-2</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="5"/>
-        <v>-10181.934000000003</v>
+        <v>-6597.0396000000037</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" si="8"/>
-        <v>-697.17043500000011</v>
+        <v>-389.4669990000001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="9"/>
@@ -3673,15 +3673,15 @@
       </c>
       <c r="N9" s="8">
         <f t="shared" si="4"/>
-        <v>14886.248120713821</v>
+        <v>18578.689352713816</v>
       </c>
       <c r="O9" s="12">
         <f t="shared" si="6"/>
-        <v>5.3478247608838597E-2</v>
+        <v>6.6743194214908735E-2</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="5"/>
-        <v>-9851.9776200000033</v>
+        <v>-6159.5363880000059</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" si="8"/>
-        <v>-718.08554805000017</v>
+        <v>-401.15100897000013</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="9"/>
@@ -3736,15 +3736,15 @@
       </c>
       <c r="N10" s="8">
         <f t="shared" si="4"/>
-        <v>16011.528156529892</v>
+        <v>19814.742625489889</v>
       </c>
       <c r="O10" s="12">
         <f t="shared" si="6"/>
-        <v>5.2826061673247882E-2</v>
+        <v>6.5373823518948659E-2</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" si="5"/>
-        <v>-9512.1225486000058</v>
+        <v>-5708.9080796400067</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" si="8"/>
-        <v>-739.62811449150024</v>
+        <v>-413.18553923910014</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="9"/>
@@ -3799,15 +3799,15 @@
       </c>
       <c r="N11" s="8">
         <f t="shared" si="4"/>
-        <v>20652.585866845773</v>
+        <v>24569.896769874576</v>
       </c>
       <c r="O11" s="12">
         <f t="shared" si="6"/>
-        <v>6.284589273641647E-2</v>
+        <v>7.4766283839699785E-2</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="5"/>
-        <v>-5681.5918250580071</v>
+        <v>-1764.2809220292038</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" si="8"/>
-        <v>-761.81695792624532</v>
+        <v>-425.58110541627315</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="9"/>
@@ -3862,15 +3862,15 @@
       </c>
       <c r="N12" s="8">
         <f t="shared" si="4"/>
-        <v>21849.574929161943</v>
+        <v>25884.40515928161</v>
       </c>
       <c r="O12" s="12">
         <f t="shared" si="6"/>
-        <v>6.1555578629729907E-2</v>
+        <v>7.2922678918544023E-2</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="5"/>
-        <v>-5321.0395798097434</v>
+        <v>-1286.2093496900779</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="8"/>
-        <v>-784.67146666403266</v>
+        <v>-438.34853857876135</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="9"/>
@@ -3925,15 +3925,15 @@
       </c>
       <c r="N13" s="8">
         <f t="shared" si="4"/>
-        <v>23084.124378497581</v>
+        <v>27239.999515520838</v>
       </c>
       <c r="O13" s="12">
         <f t="shared" si="6"/>
-        <v>6.0409486089226368E-2</v>
+        <v>7.128511113621408E-2</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="5"/>
-        <v>-4949.6707672040375</v>
+        <v>-793.79563018077897</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" si="8"/>
-        <v>-808.21161066395371</v>
+        <v>-451.49899473612419</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="9"/>
@@ -3988,15 +3988,15 @@
       </c>
       <c r="N14" s="8">
         <f t="shared" si="4"/>
-        <v>24357.419737370899</v>
+        <v>28637.971128504854</v>
       </c>
       <c r="O14" s="12">
         <f t="shared" si="6"/>
-        <v>5.9384982242298885E-2</v>
+        <v>6.9821246472689641E-2</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" si="5"/>
-        <v>-4567.1608902201588</v>
+        <v>-286.60949908620387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" si="8"/>
-        <v>-832.45795898387235</v>
+        <v>-465.04396457820792</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="9"/>
@@ -4051,15 +4051,15 @@
       </c>
       <c r="N15" s="8">
         <f t="shared" si="4"/>
-        <v>25670.684182144341</v>
+        <v>30079.652115012312</v>
       </c>
       <c r="O15" s="12">
         <f t="shared" si="6"/>
-        <v>5.8463929419590464E-2</v>
+        <v>6.8505172894500407E-2</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="5"/>
-        <v>-4173.1757169267621</v>
+        <v>235.79221594120827</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" si="8"/>
-        <v>-857.43169775338856</v>
+        <v>-478.99528351555415</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="9"/>
@@ -4114,15 +4114,15 @@
       </c>
       <c r="N16" s="8">
         <f t="shared" si="4"/>
-        <v>27025.179746909263</v>
+        <v>31566.416717763277</v>
       </c>
       <c r="O16" s="12">
         <f t="shared" si="6"/>
-        <v>5.7631621836611871E-2</v>
+        <v>6.7315881265251967E-2</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="5"/>
-        <v>-3767.3709884345644</v>
+        <v>773.86598241944921</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="E17" s="5">
         <f t="shared" si="8"/>
-        <v>-883.1546486859902</v>
+        <v>-493.3651420210208</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="9"/>
@@ -4177,15 +4177,15 @@
       </c>
       <c r="N17" s="8">
         <f t="shared" si="4"/>
-        <v>28422.208566128182</v>
+        <v>33099.682646107809</v>
       </c>
       <c r="O17" s="12">
         <f t="shared" si="6"/>
-        <v>5.6876010471277043E-2</v>
+        <v>6.6236157981738056E-2</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="5"/>
-        <v>-3349.3921180875968</v>
+        <v>1328.0819618920304</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" si="8"/>
-        <v>-909.64928814656992</v>
+        <v>-508.16609628165145</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="9"/>
@@ -4240,15 +4240,15 @@
       </c>
       <c r="N18" s="8">
         <f t="shared" si="4"/>
-        <v>29863.114157294527</v>
+        <v>34680.912459673549</v>
       </c>
       <c r="O18" s="12">
         <f t="shared" si="6"/>
-        <v>5.6187128946521336E-2</v>
+        <v>6.525176477211822E-2</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" si="5"/>
-        <v>-2918.8738816302302</v>
+        <v>1898.9244207487955</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" si="8"/>
-        <v>-936.93876679096707</v>
+        <v>-523.41107917010106</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="9"/>
@@ -4303,15 +4303,15 @@
       </c>
       <c r="N19" s="8">
         <f t="shared" si="4"/>
-        <v>31349.282744901164</v>
+        <v>36311.614996351556</v>
       </c>
       <c r="O19" s="12">
         <f t="shared" si="6"/>
-        <v>5.5556662125287544E-2</v>
+        <v>6.4350822377393688E-2</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" si="5"/>
-        <v>-2475.4400980791288</v>
+        <v>2486.8921533712619</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E20" s="5">
         <f t="shared" si="8"/>
-        <v>-965.0469297946961</v>
+        <v>-539.11341154520414</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="9"/>
@@ -4366,15 +4366,15 @@
       </c>
       <c r="N20" s="8">
         <f t="shared" si="4"/>
-        <v>32882.144627065369</v>
+        <v>37993.34684605927</v>
       </c>
       <c r="O20" s="12">
         <f t="shared" si="6"/>
-        <v>5.4977617676879482E-2</v>
+        <v>6.3523341340954956E-2</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" si="5"/>
-        <v>-2018.7033010215091</v>
+        <v>3092.4989179723943</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="E21" s="5">
         <f t="shared" si="8"/>
-        <v>-993.99833768853705</v>
+        <v>-555.28681389156031</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="9"/>
@@ -4429,15 +4429,15 @@
       </c>
       <c r="N21" s="8">
         <f t="shared" si="4"/>
-        <v>34463.175586187383</v>
+        <v>39727.713871751104</v>
       </c>
       <c r="O21" s="12">
         <f t="shared" si="6"/>
-        <v>5.4444073037364558E-2</v>
+        <v>6.2760860508398131E-2</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" si="5"/>
-        <v>-1548.2644000521559</v>
+        <v>3716.2738855115676</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="E22" s="5">
         <f t="shared" si="8"/>
-        <v>-1023.8182878191932</v>
+        <v>-571.94541830830713</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="9"/>
@@ -4492,15 +4492,15 @@
       </c>
       <c r="N22" s="8">
         <f t="shared" si="4"/>
-        <v>36093.898345076566</v>
+        <v>41516.372779207202</v>
       </c>
       <c r="O22" s="12">
         <f t="shared" si="6"/>
-        <v>5.3950978316404954E-2</v>
+        <v>6.2056165454134775E-2</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" si="5"/>
-        <v>-1063.7123320537212</v>
+        <v>4358.7621020769129</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" si="8"/>
-        <v>-1054.5328364537691</v>
+        <v>-589.10378085755633</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="9"/>
@@ -4555,15 +4555,15 @@
       </c>
       <c r="N23" s="8">
         <f t="shared" si="4"/>
-        <v>37775.884070018466</v>
+        <v>43361.032737173016</v>
       </c>
       <c r="O23" s="12">
         <f t="shared" si="6"/>
-        <v>5.3494001232209251E-2</v>
+        <v>6.1403066950672824E-2</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="5"/>
-        <v>-564.62370201533304</v>
+        <v>5020.5249651392169</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="E24" s="5">
         <f t="shared" si="8"/>
-        <v>-1086.1688215473821</v>
+        <v>-606.77689428328301</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="9"/>
@@ -4618,15 +4618,15 @@
       </c>
       <c r="N24" s="8">
         <f t="shared" si="4"/>
-        <v>39510.753922306489</v>
+        <v>45263.457049475677</v>
       </c>
       <c r="O24" s="12">
         <f t="shared" si="6"/>
-        <v>5.3069403977724118E-2</v>
+        <v>6.0796225055853442E-2</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="5"/>
-        <v>-50.562413075798759</v>
+        <v>5702.1407140933916</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" si="8"/>
-        <v>-1118.7538861938035</v>
+        <v>-624.98020111178153</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="9"/>
@@ -4681,15 +4681,15 @@
       </c>
       <c r="N25" s="8">
         <f t="shared" si="4"/>
-        <v>41300.180659816164</v>
+        <v>47225.464880800428</v>
       </c>
       <c r="O25" s="12">
         <f t="shared" si="6"/>
-        <v>5.2673944601415043E-2</v>
+        <v>6.0231008222384523E-2</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="5"/>
-        <v>478.92071453193421</v>
+        <v>6404.204935516198</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" si="8"/>
-        <v>-1152.3165027796176</v>
+        <v>-643.72960714513499</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="9"/>
@@ -4744,15 +4744,15 @@
       </c>
       <c r="N26" s="8">
         <f t="shared" si="4"/>
-        <v>43145.890290242118</v>
+        <v>49248.93303785591</v>
       </c>
       <c r="O26" s="12">
         <f t="shared" si="6"/>
-        <v>5.2304797391499583E-2</v>
+        <v>5.9703379556294893E-2</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" si="5"/>
-        <v>1024.2883359678908</v>
+        <v>7127.331083581681</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" si="8"/>
-        <v>-1186.8859978630062</v>
+        <v>-663.04149535948909</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="9"/>
@@ -4807,15 +4807,15 @@
       </c>
       <c r="N27" s="8">
         <f t="shared" si="4"/>
-        <v>45049.663777677699</v>
+        <v>51335.797807719908</v>
       </c>
       <c r="O27" s="12">
         <f t="shared" si="6"/>
-        <v>5.1959488124398115E-2</v>
+        <v>5.9209804310868669E-2</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" si="5"/>
-        <v>1586.0169860469268</v>
+        <v>7872.1510160891321</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" si="8"/>
-        <v>-1222.4925777988965</v>
+        <v>-682.93274022027379</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="9"/>
@@ -4870,15 +4870,15 @@
       </c>
       <c r="N28" s="8">
         <f t="shared" si="4"/>
-        <v>47013.33880427682</v>
+        <v>53488.056855220289</v>
       </c>
       <c r="O28" s="12">
         <f t="shared" si="6"/>
-        <v>5.1635841037461147E-2</v>
+        <v>5.8747174130240415E-2</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" si="5"/>
-        <v>2164.5974956283335</v>
+        <v>8639.3155465718046</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" si="8"/>
-        <v>-1259.1673551328633</v>
+        <v>-703.42072242688198</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="9"/>
@@ -4933,15 +4933,15 @@
       </c>
       <c r="N29" s="8">
         <f t="shared" si="4"/>
-        <v>49038.811588777346</v>
+        <v>55707.771181249118</v>
       </c>
       <c r="O29" s="12">
         <f t="shared" si="6"/>
-        <v>5.13319351218487E-2</v>
+        <v>5.8312744608050332E-2</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="5"/>
-        <v>2760.5354204971845</v>
+        <v>9429.4950129689569</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" si="8"/>
-        <v>-1296.9423757868492</v>
+        <v>-724.52334409968842</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="9"/>
@@ -4996,15 +4996,15 @@
       </c>
       <c r="N30" s="8">
         <f t="shared" si="4"/>
-        <v>51128.03876374571</v>
+        <v>57997.067143991633</v>
       </c>
       <c r="O30" s="12">
         <f t="shared" si="6"/>
-        <v>5.1046067878826026E-2</v>
+        <v>5.7904083508563978E-2</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" si="5"/>
-        <v>3374.3514831121065</v>
+        <v>10243.379863358032</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="E31" s="5">
         <f t="shared" si="8"/>
-        <v>-1335.8506470604548</v>
+        <v>-746.25904442267904</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="9"/>
@@ -5059,15 +5059,15 @@
       </c>
       <c r="N31" s="8">
         <f t="shared" si="4"/>
-        <v>53283.039313445297</v>
+        <v>60358.138545098605</v>
       </c>
       <c r="O31" s="12">
         <f t="shared" si="6"/>
-        <v>5.0776725093759995E-2</v>
+        <v>5.751902758486583E-2</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" si="5"/>
-        <v>4006.5820276054656</v>
+        <v>11081.681259258776</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" si="8"/>
-        <v>-1375.9261664722685</v>
+        <v>-768.6468157553594</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="9"/>
@@ -5122,15 +5122,15 @@
       </c>
       <c r="N32" s="8">
         <f t="shared" si="4"/>
-        <v>55505.89657430329</v>
+        <v>62793.248782906201</v>
       </c>
       <c r="O32" s="12">
         <f t="shared" si="6"/>
-        <v>5.0522555493540747E-2</v>
+        <v>5.7155646373664749E-2</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" si="5"/>
-        <v>4657.7794884336363</v>
+        <v>11945.131697036544</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="E33" s="5">
         <f t="shared" si="8"/>
-        <v>-1417.2039514664366</v>
+        <v>-791.70622022802024</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="9"/>
@@ -5175,15 +5175,15 @@
       </c>
       <c r="N33" s="8">
         <f t="shared" si="4"/>
-        <v>57513.035374491505</v>
+        <v>65019.008149352499</v>
       </c>
       <c r="O33" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420764936E-2</v>
+        <v>5.6563643715846906E-2</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" si="5"/>
-        <v>23028.512873086642</v>
+        <v>30534.485647947637</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="E34" s="5">
         <f t="shared" si="8"/>
-        <v>-1459.7200700104297</v>
+        <v>-815.45740683486088</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="9"/>
@@ -5228,15 +5228,15 @@
       </c>
       <c r="N34" s="8">
         <f t="shared" si="4"/>
-        <v>59238.426435726411</v>
+        <v>66969.578393833246</v>
       </c>
       <c r="O34" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765075E-2</v>
+        <v>5.6563643715847052E-2</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" si="5"/>
-        <v>23719.368259279239</v>
+        <v>31450.520217386067</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" si="8"/>
-        <v>-1503.5116721107427</v>
+        <v>-839.92112903990676</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" ref="F35:F71" si="12">F34*(1+B35)</f>
@@ -5281,15 +5281,15 @@
       </c>
       <c r="N35" s="8">
         <f t="shared" si="4"/>
-        <v>61015.57922879824</v>
+        <v>68978.665745648264</v>
       </c>
       <c r="O35" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765103E-2</v>
+        <v>5.6563643715847066E-2</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" si="5"/>
-        <v>24430.949307057621</v>
+        <v>32394.035823907649</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="E36" s="5">
         <f t="shared" si="8"/>
-        <v>-1548.617022274065</v>
+        <v>-865.118762911104</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="12"/>
@@ -5334,15 +5334,15 @@
       </c>
       <c r="N36" s="8">
         <f t="shared" si="4"/>
-        <v>62846.046605662144</v>
+        <v>71048.025718017685</v>
       </c>
       <c r="O36" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765068E-2</v>
+        <v>5.6563643715847038E-2</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" si="5"/>
-        <v>25163.877786269346</v>
+        <v>33365.856898624879</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="E37" s="5">
         <f t="shared" si="8"/>
-        <v>-1595.0755329422871</v>
+        <v>-891.07232579843719</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="12"/>
@@ -5387,15 +5387,15 @@
       </c>
       <c r="N37" s="8">
         <f t="shared" si="4"/>
-        <v>64731.428003831941</v>
+        <v>73179.466489558137</v>
       </c>
       <c r="O37" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765013E-2</v>
+        <v>5.6563643715846976E-2</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" si="5"/>
-        <v>25918.794119857423</v>
+        <v>34366.832605583622</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="E38" s="5">
         <f t="shared" si="8"/>
-        <v>-1642.9277989305558</v>
+        <v>-917.80449557239035</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="12"/>
@@ -5440,15 +5440,15 @@
       </c>
       <c r="N38" s="8">
         <f t="shared" si="4"/>
-        <v>66673.370843946963</v>
+        <v>75374.850484244947</v>
       </c>
       <c r="O38" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765061E-2</v>
+        <v>5.6563643715847024E-2</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" si="5"/>
-        <v>26696.357943453149</v>
+        <v>35397.837583751141</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="E39" s="5">
         <f t="shared" si="8"/>
-        <v>-1692.2156328984724</v>
+        <v>-945.33863043956205</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="12"/>
@@ -5493,15 +5493,15 @@
       </c>
       <c r="N39" s="8">
         <f t="shared" si="4"/>
-        <v>68673.571969265424</v>
+        <v>77636.095998772362</v>
       </c>
       <c r="O39" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765096E-2</v>
+        <v>5.6563643715847073E-2</v>
       </c>
       <c r="P39" s="8">
         <f t="shared" si="5"/>
-        <v>27497.248681756741</v>
+        <v>36459.772711263671</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="E40" s="5">
         <f t="shared" si="8"/>
-        <v>-1742.9821018854266</v>
+        <v>-973.69878935274892</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="12"/>
@@ -5546,15 +5546,15 @@
       </c>
       <c r="N40" s="8">
         <f t="shared" si="4"/>
-        <v>70733.779128343362</v>
+        <v>79965.178878735489</v>
       </c>
       <c r="O40" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765068E-2</v>
+        <v>5.6563643715847038E-2</v>
       </c>
       <c r="P40" s="8">
         <f t="shared" si="5"/>
-        <v>28322.166142209455</v>
+        <v>37553.565892601582</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" si="8"/>
-        <v>-1795.2715649419895</v>
+        <v>-1002.9097530333314</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="12"/>
@@ -5599,15 +5599,15 @@
       </c>
       <c r="N41" s="8">
         <f t="shared" si="4"/>
-        <v>72855.792502193508</v>
+        <v>82364.134245097404</v>
       </c>
       <c r="O41" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420764964E-2</v>
+        <v>5.6563643715846927E-2</v>
       </c>
       <c r="P41" s="8">
         <f t="shared" si="5"/>
-        <v>29171.831126475736</v>
+        <v>38680.172869379632</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="E42" s="5">
         <f t="shared" si="8"/>
-        <v>-1849.1297118902492</v>
+        <v>-1032.9970456243313</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="12"/>
@@ -5652,15 +5652,15 @@
       </c>
       <c r="N42" s="8">
         <f t="shared" si="4"/>
-        <v>75041.4662772593</v>
+        <v>84835.058272450318</v>
       </c>
       <c r="O42" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420764957E-2</v>
+        <v>5.6563643715846927E-2</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" si="5"/>
-        <v>30046.98606027001</v>
+        <v>39840.578055461025</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="E43" s="5">
         <f t="shared" si="8"/>
-        <v>-1904.6036032469567</v>
+        <v>-1063.9869569930613</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="12"/>
@@ -5705,15 +5705,15 @@
       </c>
       <c r="N43" s="8">
         <f t="shared" si="4"/>
-        <v>77292.71026557716</v>
+        <v>87380.110020623906</v>
       </c>
       <c r="O43" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765013E-2</v>
+        <v>5.6563643715846983E-2</v>
       </c>
       <c r="P43" s="8">
         <f t="shared" si="5"/>
-        <v>30948.395642078111</v>
+        <v>41035.79539712485</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="E44" s="5">
         <f t="shared" si="8"/>
-        <v>-1961.7417113443655</v>
+        <v>-1095.9065657028532</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="12"/>
@@ -5758,15 +5758,15 @@
       </c>
       <c r="N44" s="8">
         <f t="shared" si="4"/>
-        <v>79611.49157354451</v>
+        <v>90001.513321242659</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765033E-2</v>
+        <v>5.6563643715847003E-2</v>
       </c>
       <c r="P44" s="8">
         <f t="shared" si="5"/>
-        <v>31876.847511340453</v>
+        <v>42266.869259038605</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="E45" s="5">
         <f t="shared" si="8"/>
-        <v>-2020.5939626846966</v>
+        <v>-1128.7837626739388</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="12"/>
@@ -5811,15 +5811,15 @@
       </c>
       <c r="N45" s="8">
         <f t="shared" si="4"/>
-        <v>81999.836320750837</v>
+        <v>92701.558720879926</v>
       </c>
       <c r="O45" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765026E-2</v>
+        <v>5.6563643715846997E-2</v>
       </c>
       <c r="P45" s="8">
         <f t="shared" si="5"/>
-        <v>32833.152936680664</v>
+        <v>43534.87533680976</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="E46" s="5">
         <f t="shared" si="8"/>
-        <v>-2081.2117815652377</v>
+        <v>-1162.647275554157</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="12"/>
@@ -5864,15 +5864,15 @@
       </c>
       <c r="N46" s="8">
         <f t="shared" si="4"/>
-        <v>84459.831410373357</v>
+        <v>95482.605482506318</v>
       </c>
       <c r="O46" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765019E-2</v>
+        <v>5.656364371584699E-2</v>
       </c>
       <c r="P46" s="8">
         <f t="shared" si="5"/>
-        <v>33818.147524781081</v>
+        <v>44840.92159691405</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="E47" s="5">
         <f t="shared" si="8"/>
-        <v>-2143.6481350121949</v>
+        <v>-1197.5266938207817</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="12"/>
@@ -5917,15 +5917,15 @@
       </c>
       <c r="N47" s="8">
         <f t="shared" si="4"/>
-        <v>86993.626352684631</v>
+        <v>98347.083646981599</v>
       </c>
       <c r="O47" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765061E-2</v>
+        <v>5.6563643715847038E-2</v>
       </c>
       <c r="P47" s="8">
         <f t="shared" si="5"/>
-        <v>34832.691950524517</v>
+        <v>46186.149244821478</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="E48" s="5">
         <f t="shared" si="8"/>
-        <v>-2207.9575790625609</v>
+        <v>-1233.4524946354052</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="12"/>
@@ -5970,15 +5970,15 @@
       </c>
       <c r="N48" s="8">
         <f t="shared" si="4"/>
-        <v>89603.435143265073</v>
+        <v>101297.49615639095</v>
       </c>
       <c r="O48" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765006E-2</v>
+        <v>5.6563643715846983E-2</v>
       </c>
       <c r="P48" s="8">
         <f t="shared" si="5"/>
-        <v>35877.672709040242</v>
+        <v>47571.733722166115</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="E49" s="5">
         <f t="shared" si="8"/>
-        <v>-2274.1963064344377</v>
+        <v>-1270.4560694744673</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="12"/>
@@ -6023,15 +6023,15 @@
       </c>
       <c r="N49" s="8">
         <f t="shared" si="4"/>
-        <v>92291.538197563073</v>
+        <v>104336.42104108272</v>
       </c>
       <c r="O49" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765033E-2</v>
+        <v>5.6563643715847003E-2</v>
       </c>
       <c r="P49" s="8">
         <f t="shared" si="5"/>
-        <v>36954.002890311458</v>
+        <v>48998.885733831106</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="E50" s="5">
         <f t="shared" si="8"/>
-        <v>-2342.422195627471</v>
+        <v>-1308.5697515587015</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" si="12"/>
@@ -6076,15 +6076,15 @@
       </c>
       <c r="N50" s="8">
         <f t="shared" si="4"/>
-        <v>95060.284343490028</v>
+        <v>107466.51367231525</v>
       </c>
       <c r="O50" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765061E-2</v>
+        <v>5.6563643715847031E-2</v>
       </c>
       <c r="P50" s="8">
         <f t="shared" si="5"/>
-        <v>38062.622977020801</v>
+        <v>50468.852305846034</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="E51" s="5">
         <f t="shared" si="8"/>
-        <v>-2412.6948614962953</v>
+        <v>-1347.8268441054624</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="12"/>
@@ -6129,15 +6129,15 @@
       </c>
       <c r="N51" s="8">
         <f t="shared" si="4"/>
-        <v>97912.092873794725</v>
+        <v>110690.5090824847</v>
       </c>
       <c r="O51" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765061E-2</v>
+        <v>5.6563643715847024E-2</v>
       </c>
       <c r="P51" s="8">
         <f t="shared" si="5"/>
-        <v>39204.501666331424</v>
+        <v>51982.917875021412</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="E52" s="5">
         <f t="shared" si="8"/>
-        <v>-2485.0757073411842</v>
+        <v>-1388.2616494286262</v>
       </c>
       <c r="F52" s="5">
         <f t="shared" si="12"/>
@@ -6182,15 +6182,15 @@
       </c>
       <c r="N52" s="8">
         <f t="shared" si="4"/>
-        <v>100849.45566000861</v>
+        <v>114011.22435495931</v>
       </c>
       <c r="O52" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765075E-2</v>
+        <v>5.6563643715847052E-2</v>
       </c>
       <c r="P52" s="8">
         <f t="shared" si="5"/>
-        <v>40380.636716321358</v>
+        <v>53542.405411272062</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="E53" s="5">
         <f t="shared" si="8"/>
-        <v>-2559.6279785614197</v>
+        <v>-1429.9094989114851</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" si="12"/>
@@ -6235,15 +6235,15 @@
       </c>
       <c r="N53" s="8">
         <f t="shared" si="4"/>
-        <v>103874.93932980877</v>
+        <v>117431.56108560799</v>
       </c>
       <c r="O53" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765026E-2</v>
+        <v>5.6563643715846997E-2</v>
       </c>
       <c r="P53" s="8">
         <f t="shared" si="5"/>
-        <v>41592.055817811008</v>
+        <v>55148.677573610228</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="E54" s="5">
         <f t="shared" si="8"/>
-        <v>-2636.4168179182625</v>
+        <v>-1472.8067838788297</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="12"/>
@@ -6288,15 +6288,15 @@
       </c>
       <c r="N54" s="8">
         <f t="shared" si="4"/>
-        <v>106991.18750970296</v>
+        <v>120954.50791817615</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420764992E-2</v>
+        <v>5.6563643715846962E-2</v>
       </c>
       <c r="P54" s="8">
         <f t="shared" si="5"/>
-        <v>42839.817492345326</v>
+        <v>56803.137900818525</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -6315,7 +6315,7 @@
       </c>
       <c r="E55" s="5">
         <f t="shared" si="8"/>
-        <v>-2715.5093224558104</v>
+        <v>-1516.9909873951947</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" si="12"/>
@@ -6341,15 +6341,15 @@
       </c>
       <c r="N55" s="8">
         <f t="shared" si="4"/>
-        <v>110200.92313499397</v>
+        <v>124583.14315572137</v>
       </c>
       <c r="O55" s="12">
         <f t="shared" si="6"/>
-        <v>5.003378142076495E-2</v>
+        <v>5.6563643715846934E-2</v>
       </c>
       <c r="P55" s="8">
         <f t="shared" si="5"/>
-        <v>44125.012017115689</v>
+        <v>58507.232037843081</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="E56" s="5">
         <f t="shared" si="8"/>
-        <v>-2796.974602129485</v>
+        <v>-1562.5007170170506</v>
       </c>
       <c r="F56" s="5">
         <f t="shared" si="12"/>
@@ -6394,15 +6394,15 @@
       </c>
       <c r="N56" s="8">
         <f t="shared" si="4"/>
-        <v>113506.9508290441</v>
+        <v>128320.6374503933</v>
       </c>
       <c r="O56" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765096E-2</v>
+        <v>5.6563643715847066E-2</v>
       </c>
       <c r="P56" s="8">
         <f t="shared" si="5"/>
-        <v>45448.762377629173</v>
+        <v>60262.448998978376</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="E57" s="5">
         <f t="shared" si="8"/>
-        <v>-2880.8838401933695</v>
+        <v>-1609.3757385275621</v>
       </c>
       <c r="F57" s="5">
         <f t="shared" si="12"/>
@@ -6447,15 +6447,15 @@
       </c>
       <c r="N57" s="8">
         <f t="shared" si="4"/>
-        <v>116912.15935391519</v>
+        <v>132170.25657390489</v>
       </c>
       <c r="O57" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420764992E-2</v>
+        <v>5.6563643715846969E-2</v>
       </c>
       <c r="P57" s="8">
         <f t="shared" si="5"/>
-        <v>46812.225248958035</v>
+        <v>62070.322468947728</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="E58" s="5">
         <f t="shared" si="8"/>
-        <v>-2967.3103553991705</v>
+        <v>-1657.657010683389</v>
       </c>
       <c r="F58" s="5">
         <f t="shared" si="12"/>
@@ -6500,15 +6500,15 @@
       </c>
       <c r="N58" s="8">
         <f t="shared" si="4"/>
-        <v>120419.52413453256</v>
+        <v>136135.36427112194</v>
       </c>
       <c r="O58" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420764957E-2</v>
+        <v>5.6563643715846927E-2</v>
       </c>
       <c r="P58" s="8">
         <f t="shared" si="5"/>
-        <v>48216.592006426785</v>
+        <v>63932.432143016165</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="E59" s="5">
         <f t="shared" si="8"/>
-        <v>-3056.3296660611459</v>
+        <v>-1707.3867210038907</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="12"/>
@@ -6553,15 +6553,15 @@
       </c>
       <c r="N59" s="8">
         <f t="shared" si="4"/>
-        <v>124032.10985856861</v>
+        <v>140219.4251992557</v>
       </c>
       <c r="O59" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420764985E-2</v>
+        <v>5.6563643715846969E-2</v>
       </c>
       <c r="P59" s="8">
         <f t="shared" si="5"/>
-        <v>49663.089766619581</v>
+        <v>65850.405107306651</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="E60" s="5">
         <f t="shared" si="8"/>
-        <v>-3148.0195560429802</v>
+        <v>-1758.6083226340074</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="12"/>
@@ -6606,15 +6606,15 @@
       </c>
       <c r="N60" s="8">
         <f t="shared" si="4"/>
-        <v>127753.07315432599</v>
+        <v>144426.00795523365</v>
       </c>
       <c r="O60" s="12">
         <f t="shared" si="6"/>
-        <v>5.003378142076511E-2</v>
+        <v>5.656364371584708E-2</v>
       </c>
       <c r="P60" s="8">
         <f t="shared" si="5"/>
-        <v>51152.982459618172</v>
+        <v>67825.917260525835</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="E61" s="5">
         <f t="shared" si="8"/>
-        <v>-3242.4601427242696</v>
+        <v>-1811.3665723130277</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" si="12"/>
@@ -6659,15 +6659,15 @@
       </c>
       <c r="N61" s="8">
         <f t="shared" si="4"/>
-        <v>131585.66534895572</v>
+        <v>148758.78819389065</v>
       </c>
       <c r="O61" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765089E-2</v>
+        <v>5.6563643715847073E-2</v>
       </c>
       <c r="P61" s="8">
         <f t="shared" si="5"/>
-        <v>52687.571933406711</v>
+        <v>69860.694778341625</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="E62" s="5">
         <f t="shared" si="8"/>
-        <v>-3339.7339470059978</v>
+        <v>-1865.7075694824186</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" si="12"/>
@@ -6712,15 +6712,15 @@
       </c>
       <c r="N62" s="8">
         <f t="shared" si="4"/>
-        <v>135533.2353094244</v>
+        <v>153221.55183970736</v>
       </c>
       <c r="O62" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765089E-2</v>
+        <v>5.6563643715847059E-2</v>
       </c>
       <c r="P62" s="8">
         <f t="shared" si="5"/>
-        <v>54268.199091408926</v>
+        <v>71956.515621691869</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="E63" s="5">
         <f t="shared" si="8"/>
-        <v>-3439.9259654161779</v>
+        <v>-1921.6787965668912</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="12"/>
@@ -6765,15 +6765,15 @@
       </c>
       <c r="N63" s="8">
         <f t="shared" si="4"/>
-        <v>139599.2323687069</v>
+        <v>157818.19839489833</v>
       </c>
       <c r="O63" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420764999E-2</v>
+        <v>5.6563643715846962E-2</v>
       </c>
       <c r="P63" s="8">
         <f t="shared" si="5"/>
-        <v>55896.245064151175</v>
+        <v>74115.211090342622</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="E64" s="5">
         <f t="shared" si="8"/>
-        <v>-3543.1237443786631</v>
+        <v>-1979.329160463898</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="12"/>
@@ -6818,15 +6818,15 @@
       </c>
       <c r="N64" s="8">
         <f t="shared" si="4"/>
-        <v>143787.20933976833</v>
+        <v>162552.74434674549</v>
       </c>
       <c r="O64" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765075E-2</v>
+        <v>5.6563643715847038E-2</v>
       </c>
       <c r="P64" s="8">
         <f t="shared" si="5"/>
-        <v>57573.132416075721</v>
+        <v>76338.667423052902</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="E65" s="5">
         <f t="shared" si="8"/>
-        <v>-3649.4174567100231</v>
+        <v>-2038.709035277815</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="12"/>
@@ -6871,15 +6871,15 @@
       </c>
       <c r="N65" s="8">
         <f t="shared" si="4"/>
-        <v>148100.82561996122</v>
+        <v>167429.32667714771</v>
       </c>
       <c r="O65" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765019E-2</v>
+        <v>5.6563643715846983E-2</v>
       </c>
       <c r="P65" s="8">
         <f t="shared" si="5"/>
-        <v>59300.326388558002</v>
+        <v>78628.827445744493</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="E66" s="5">
         <f t="shared" si="8"/>
-        <v>-3758.8999804113237</v>
+        <v>-2099.8703063361495</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="12"/>
@@ -6924,15 +6924,15 @@
       </c>
       <c r="N66" s="8">
         <f t="shared" si="4"/>
-        <v>152543.85038855995</v>
+        <v>172452.20647746202</v>
       </c>
       <c r="O66" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420764978E-2</v>
+        <v>5.6563643715846948E-2</v>
       </c>
       <c r="P66" s="8">
         <f t="shared" si="5"/>
-        <v>61079.336180214741</v>
+        <v>80987.692269116829</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="E67" s="5">
         <f t="shared" si="8"/>
-        <v>-3871.6669798236635</v>
+        <v>-2162.8664155262341</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="12"/>
@@ -6977,15 +6977,15 @@
       </c>
       <c r="N67" s="8">
         <f t="shared" si="4"/>
-        <v>157120.16590021696</v>
+        <v>177625.77267178614</v>
       </c>
       <c r="O67" s="12">
         <f t="shared" si="6"/>
-        <v>5.0033781420765047E-2</v>
+        <v>5.6563643715847024E-2</v>
       </c>
       <c r="P67" s="8">
         <f t="shared" ref="P67:P71" si="15">12*(C67+D67+E67+F67+G67)+H67</f>
-        <v>62911.716265621202</v>
+        <v>83417.323037190363</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="E68" s="5">
         <f t="shared" ref="E68:E71" si="16">E67*(1+B68)</f>
-        <v>-3987.8169892183737</v>
+        <v>-2227.7524079920213</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="12"/>
@@ -7030,15 +7030,15 @@
       </c>
       <c r="N68" s="8">
         <f t="shared" ref="N68:N71" si="17">M68-M67+12*(C68+D68+E68+F68+G68)+H68</f>
-        <v>161833.77087722358</v>
+        <v>182954.54585193979</v>
       </c>
       <c r="O68" s="12">
         <f t="shared" ref="O68:O71" si="18">N68/M67</f>
-        <v>5.0033781420765082E-2</v>
+        <v>5.6563643715847045E-2</v>
       </c>
       <c r="P68" s="8">
         <f t="shared" si="15"/>
-        <v>64799.067753589821</v>
+        <v>85919.842728306045</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="E69" s="5">
         <f t="shared" si="16"/>
-        <v>-4107.451498894925</v>
+        <v>-2294.5849802317821</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="12"/>
@@ -7083,15 +7083,15 @@
       </c>
       <c r="N69" s="8">
         <f t="shared" si="17"/>
-        <v>166688.7840035402</v>
+        <v>188443.18222749792</v>
       </c>
       <c r="O69" s="12">
         <f t="shared" si="18"/>
-        <v>5.0033781420765054E-2</v>
+        <v>5.6563643715847024E-2</v>
       </c>
       <c r="P69" s="8">
         <f t="shared" si="15"/>
-        <v>66743.039786197507</v>
+        <v>88497.438010155223</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="E70" s="5">
         <f t="shared" si="16"/>
-        <v>-4230.6750438617728</v>
+        <v>-2363.4225296387358</v>
       </c>
       <c r="F70" s="5">
         <f t="shared" si="12"/>
@@ -7136,15 +7136,15 @@
       </c>
       <c r="N70" s="8">
         <f t="shared" si="17"/>
-        <v>171689.44752364641</v>
+        <v>194096.47769432288</v>
       </c>
       <c r="O70" s="12">
         <f t="shared" si="18"/>
-        <v>5.0033781420765047E-2</v>
+        <v>5.6563643715847024E-2</v>
       </c>
       <c r="P70" s="8">
         <f t="shared" si="15"/>
-        <v>68745.330979783452</v>
+        <v>91152.361150459896</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="E71" s="5">
         <f t="shared" si="16"/>
-        <v>-4357.5952951776262</v>
+        <v>-2434.3252055278981</v>
       </c>
       <c r="F71" s="5">
         <f t="shared" si="12"/>
@@ -7189,15 +7189,15 @@
       </c>
       <c r="N71" s="8">
         <f t="shared" si="17"/>
-        <v>176840.13094935555</v>
+        <v>199919.37202515229</v>
       </c>
       <c r="O71" s="12">
         <f t="shared" si="18"/>
-        <v>5.0033781420764971E-2</v>
+        <v>5.6563643715846941E-2</v>
       </c>
       <c r="P71" s="8">
         <f t="shared" si="15"/>
-        <v>70807.690909176948</v>
+        <v>93886.931984973693</v>
       </c>
     </row>
   </sheetData>
@@ -7211,7 +7211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061DCE9F-7618-B34C-987A-574E9FCD17E1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -7243,7 +7243,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <f>SUM(Sheet1!P2:P7)</f>
-        <v>-137711.03999999998</v>
+        <v>-116828.15999999999</v>
       </c>
       <c r="B4" s="8">
         <f>Sheet1!M7</f>
@@ -7251,11 +7251,11 @@
       </c>
       <c r="C4" s="11">
         <f>-1*B4/A4</f>
-        <v>1.8472279774782598</v>
+        <v>2.1774175498067225</v>
       </c>
       <c r="D4" s="15">
         <f>C4^(1/6)-1</f>
-        <v>0.10769471325288849</v>
+        <v>0.13847531859044082</v>
       </c>
     </row>
   </sheetData>
